--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\IntelliJ\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D52C9F-893A-4BAC-806A-96E4D0ABAE75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A0682-BCB1-4074-BA0D-1E076DC61374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>firstname</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Rupee</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Ishita</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Sehgal</t>
   </si>
 </sst>
 </file>
@@ -449,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,6 +500,48 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -497,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D709006C-3DF3-4AF9-A7D7-336DD711B299}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\IntelliJ\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A0682-BCB1-4074-BA0D-1E076DC61374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02C302B-8C94-451A-A8C8-2197CE785DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23850" yWindow="2385" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
-    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId2"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>firstname</t>
   </si>
@@ -82,6 +83,27 @@
   </si>
   <si>
     <t>Sehgal</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>BankManangerLoginTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>AddCustomerTest</t>
+  </si>
+  <si>
+    <t>OpenAccountTest</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -463,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -548,6 +570,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDB6888-7696-4AF5-B1FE-58A9156BB586}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D709006C-3DF3-4AF9-A7D7-336DD711B299}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\IntelliJ\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02C302B-8C94-451A-A8C8-2197CE785DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255F61E4-7D57-4169-8A11-580CEA59C259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23850" yWindow="2385" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
-    <sheet name="test_suite" sheetId="3" r:id="rId2"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
     <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>firstname</t>
   </si>
@@ -88,19 +88,22 @@
     <t>TCID</t>
   </si>
   <si>
+    <t>BankManangerLoginTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>AddCustomerTest</t>
+  </si>
+  <si>
+    <t>OpenAccountTest</t>
+  </si>
+  <si>
     <t>Runmode</t>
   </si>
   <si>
-    <t>BankManangerLoginTest</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>AddCustomerTest</t>
-  </si>
-  <si>
-    <t>OpenAccountTest</t>
+    <t>runmode</t>
   </si>
   <si>
     <t>N</t>
@@ -482,99 +485,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDB6888-7696-4AF5-B1FE-58A9156BB586}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,36 +502,139 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -625,7 +643,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
